--- a/Assets/06.Table/OldDokebiBonusRoulette.xlsx
+++ b/Assets/06.Table/OldDokebiBonusRoulette.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6DA9B1-015D-4816-93CD-360A031B3A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A9A723-8CFF-4873-83C0-7802A0D8866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <t>SP</t>
-  </si>
-  <si>
-    <t>DokebiFireKey</t>
-  </si>
-  <si>
-    <t>SumiFireKey</t>
   </si>
   <si>
     <t>Hel</t>
@@ -481,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,7 +581,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>19.399999999999999</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -596,7 +590,7 @@
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -616,46 +610,6 @@
         <v>1000</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>9002</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>9009</v>
-      </c>
-      <c r="C8">
-        <v>0.3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
         <v>14</v>
       </c>
     </row>
